--- a/medicine/Psychotrope/Coteaux-de-cabrerisse/Coteaux-de-cabrerisse.xlsx
+++ b/medicine/Psychotrope/Coteaux-de-cabrerisse/Coteaux-de-cabrerisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le coteaux-de-la-cabrerisse, appelé vin de pays des coteaux de la Cabrerisse jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone, produit sur une partie du massif des Corbières, dans l'Aude.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -535,49 +549,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Géologie et orographie
-Climat</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coteaux-de-cabrerisse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coteaux-de-cabrerisse</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Présentation
-Pour avoir droit à la dénomination coteaux-de-la-cabrerisse, 
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour avoir droit à la dénomination coteaux-de-la-cabrerisse, 
 les vins doivent être issus de vendanges récoltées sur le territoire des communes suivantes :
 Arrondissement de Narbonne
 Canton de Durban-Corbières : Saint-Laurent-de-la-Cabrerisse et Thézan-des-Corbières
-Canton de Lézignan-Corbières : Montséret, sauf nord de la N613 (section A3)
-Encépagement</t>
+Canton de Lézignan-Corbières : Montséret, sauf nord de la N613 (section A3)</t>
         </is>
       </c>
     </row>
